--- a/output/part2/Monday Anomaly Fama-Macbeth with time-fixed effects all days.xlsx
+++ b/output/part2/Monday Anomaly Fama-Macbeth with time-fixed effects all days.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01989168083808003</v>
+        <v>-0.02273205594462515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003455564659232071</v>
+        <v>0.0002215924716595718</v>
       </c>
       <c r="D2" t="n">
-        <v>-57.56419803905667</v>
+        <v>-102.5849649781783</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -477,267 +477,267 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SMB</t>
+          <t>SMB_loading</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.262067248134475e-06</v>
+        <v>0.0002799832239845161</v>
       </c>
       <c r="C3" t="n">
-        <v>3.85078574382281e-06</v>
+        <v>8.32335385051677e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.366491827434324</v>
+        <v>3.363826998261439</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1718375418683117</v>
+        <v>0.0007736819195192779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>HML</t>
+          <t>HML_loading</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7.112911047788989e-06</v>
+        <v>-6.012449955343198e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.894904772122849e-06</v>
+        <v>6.748334831449773e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.457044914321328</v>
+        <v>-0.8909531174005956</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01403755000818316</v>
+        <v>0.3729912915546835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RMW</t>
+          <t>RMW_loading</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.075059979243987e-06</v>
+        <v>-1.3441044189097e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>3.071078317996242e-06</v>
+        <v>8.096052636962368e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6756779750891807</v>
+        <v>-0.1660197233369282</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4992720234644101</v>
+        <v>0.8681472172096172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CMA_loading</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.031097310651451e-06</v>
+        <v>7.498336766425308e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>2.294595421213196e-06</v>
+        <v>5.44143711004195e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.320972439249814</v>
+        <v>0.1378006694699721</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1865625955985268</v>
+        <v>0.8904027403341799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>momentum_loading</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006859193588799187</v>
+        <v>0.000222364941559927</v>
       </c>
       <c r="C7" t="n">
-        <v>1.873250219359802e-05</v>
+        <v>0.0004388458433747964</v>
       </c>
       <c r="D7" t="n">
-        <v>36.61653695758472</v>
+        <v>0.5067039939353285</v>
       </c>
       <c r="E7" t="n">
-        <v>2.681563348562163e-264</v>
+        <v>0.6123817959705351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>reversal_loading</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.579927886407964e-05</v>
+        <v>-0.0003207653624705305</v>
       </c>
       <c r="C8" t="n">
-        <v>9.147388612993677e-06</v>
+        <v>0.0001091326240018956</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.47285546915529</v>
+        <v>-2.939225235388448</v>
       </c>
       <c r="E8" t="n">
-        <v>1.93765806950716e-25</v>
+        <v>0.003303321385905724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>mkt_risk_premium</t>
+          <t>mkt_loading</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.009955662929903e-06</v>
+        <v>0.0004884208651447691</v>
       </c>
       <c r="C9" t="n">
-        <v>8.382939541582406e-06</v>
+        <v>0.0001468506240302081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8362168936275863</v>
+        <v>3.325970647862537</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4030672974197996</v>
+        <v>0.0008865904916436498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>size*Monday</t>
+          <t>size*Monday_loading</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.008537215424605666</v>
+        <v>-3.678335363835271e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00672740088903243</v>
+        <v>0.0001299707172650434</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.269021359872242</v>
+        <v>-0.2830126232460661</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2044842987424641</v>
+        <v>0.7771772638805832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BM*Monday</t>
+          <t>BM*Monday_loading</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01679232530480057</v>
+        <v>1.258581987199859e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01269755587600405</v>
+        <v>9.292883914421808e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>1.322484852107235</v>
+        <v>0.1354350273596597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1860588230314392</v>
+        <v>0.8922726329002183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ROE*Monday</t>
+          <t>ROE*Monday_loading</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01516535067294032</v>
+        <v>7.340014913066509e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0135854746210132</v>
+        <v>3.749003803135434e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>1.116291561097428</v>
+        <v>0.1957857419863852</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2643435325956608</v>
+        <v>0.8447847313202552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>INV*Monday</t>
+          <t>INV*Monday_loading</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02933071789997302</v>
+        <v>1.01270493378972e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03396344952203642</v>
+        <v>1.158981443092474e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8635965519622039</v>
+        <v>0.8737887390910684</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3878452199754412</v>
+        <v>0.3822695029675048</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>MOM*Monday</t>
+          <t>MOM*Monday_loading</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03969929827073634</v>
+        <v>0.0012797587338232</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0789485987095081</v>
+        <v>0.0006378470523651404</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5028499418566019</v>
+        <v>2.006372419654284</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6150888444954901</v>
+        <v>0.04486288392928241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>REV*Monday</t>
+          <t>REV*Monday_loading</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02142726293755022</v>
+        <v>0.0002995146668768852</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01022973970525118</v>
+        <v>0.000261004643992399</v>
       </c>
       <c r="D15" t="n">
-        <v>2.094604902464047</v>
+        <v>1.14754535511486</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03624934871059424</v>
+        <v>0.2512036470722247</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mkt_risk_premium*Monday</t>
+          <t>mkt_risk_premium*Monday_loading</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.007503866491803968</v>
+        <v>-2.875413193838146e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0159788114235448</v>
+        <v>0.0002402035349168535</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4696135584119237</v>
+        <v>-0.1197073637918556</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6386487657702944</v>
+        <v>0.9047191142948705</v>
       </c>
     </row>
   </sheetData>

--- a/output/part2/Monday Anomaly Fama-Macbeth with time-fixed effects all days.xlsx
+++ b/output/part2/Monday Anomaly Fama-Macbeth with time-fixed effects all days.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02273205594462515</v>
+        <v>-0.02085163863032587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002215924716595718</v>
+        <v>0.0004041259086361501</v>
       </c>
       <c r="D2" t="n">
-        <v>-102.5849649781783</v>
+        <v>-51.59688647702959</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -477,267 +477,286 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SMB_loading</t>
+          <t>Monday t+1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0002799832239845161</v>
+        <v>0.001275778340500457</v>
       </c>
       <c r="C3" t="n">
-        <v>8.32335385051677e-05</v>
+        <v>0.001281899858242169</v>
       </c>
       <c r="D3" t="n">
-        <v>3.363826998261439</v>
+        <v>0.995224652142402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007736819195192779</v>
+        <v>0.3196685464228193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>HML_loading</t>
+          <t>SMB_loading</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.012449955343198e-05</v>
+        <v>0.0002553380462654783</v>
       </c>
       <c r="C4" t="n">
-        <v>6.748334831449773e-05</v>
+        <v>8.27131283235668e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8909531174005956</v>
+        <v>3.087031665234778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3729912915546835</v>
+        <v>0.00203120536490777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RMW_loading</t>
+          <t>HML_loading</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.3441044189097e-05</v>
+        <v>-6.496217218491791e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>8.096052636962368e-05</v>
+        <v>6.719639272818322e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1660197233369282</v>
+        <v>-0.9667508856866324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8681472172096172</v>
+        <v>0.3337089044612326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CMA_loading</t>
+          <t>RMW_loading</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.498336766425308e-06</v>
+        <v>-2.613883641151181e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>5.44143711004195e-05</v>
+        <v>8.071462826042827e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1378006694699721</v>
+        <v>-0.3238426165722282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8904027403341799</v>
+        <v>0.7460688705531968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>momentum_loading</t>
+          <t>CMA_loading</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000222364941559927</v>
+        <v>8.921368959778128e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004388458433747964</v>
+        <v>5.444234911318493e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5067039939353285</v>
+        <v>0.1638681854309908</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6123817959705351</v>
+        <v>0.8698406245290997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>reversal_loading</t>
+          <t>momentum_loading</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0003207653624705305</v>
+        <v>0.0002206321355144677</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001091326240018956</v>
+        <v>0.0004387759296475268</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.939225235388448</v>
+        <v>0.5028355490961042</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003303321385905724</v>
+        <v>0.6150989966988687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>mkt_loading</t>
+          <t>reversal_loading</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004884208651447691</v>
+        <v>-0.0003298379531944742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001468506240302081</v>
+        <v>0.0001092008857139268</v>
       </c>
       <c r="D9" t="n">
-        <v>3.325970647862537</v>
+        <v>-3.020469578044903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008865904916436498</v>
+        <v>0.002534831234876874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>size*Monday_loading</t>
+          <t>mkt_loading</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.678335363835271e-05</v>
+        <v>0.0005027548708982777</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001299707172650434</v>
+        <v>0.0001459215719862755</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2830126232460661</v>
+        <v>3.445377294493263</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7771772638805832</v>
+        <v>0.0005743060261175503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BM*Monday_loading</t>
+          <t>size*Monday_loading</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.258581987199859e-05</v>
+        <v>-3.294250670592486e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>9.292883914421808e-05</v>
+        <v>0.000133312957115638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1354350273596597</v>
+        <v>-0.2471065635229286</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8922726329002183</v>
+        <v>0.804834503250093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ROE*Monday_loading</t>
+          <t>BM*Monday_loading</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.340014913066509e-06</v>
+        <v>2.165216185534479e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>3.749003803135434e-05</v>
+        <v>0.0001076587937680762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1957857419863852</v>
+        <v>0.2011183768414583</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8447847313202552</v>
+        <v>0.8406130676762107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>INV*Monday_loading</t>
+          <t>ROE*Monday_loading</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.01270493378972e-05</v>
+        <v>6.368560262832938e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>1.158981443092474e-05</v>
+        <v>3.73641148200928e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8737887390910684</v>
+        <v>0.17044590226471</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3822695029675048</v>
+        <v>0.8646654225861503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>MOM*Monday_loading</t>
+          <t>INV*Monday_loading</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0012797587338232</v>
+        <v>1.023433002935715e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006378470523651404</v>
+        <v>1.152262201096253e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>2.006372419654284</v>
+        <v>0.8881945463124877</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04486288392928241</v>
+        <v>0.3744729562457861</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>REV*Monday_loading</t>
+          <t>MOM*Monday_loading</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002995146668768852</v>
+        <v>0.001191056157142948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000261004643992399</v>
+        <v>0.0006312761368349262</v>
       </c>
       <c r="D15" t="n">
-        <v>1.14754535511486</v>
+        <v>1.886743514675892</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2512036470722247</v>
+        <v>0.05924475211405898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>REV*Monday_loading</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0003881395485549126</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0002490685060889527</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.558364622849152</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1192014162802011</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>mkt_risk_premium*Monday_loading</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-2.875413193838146e-05</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0002402035349168535</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.1197073637918556</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9047191142948705</v>
+      <c r="B17" t="n">
+        <v>-2.404073062694617e-05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0002379400461058029</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.1010369251431353</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.919524641667423</v>
       </c>
     </row>
   </sheetData>
